--- a/config_11.17/permission_server_config.xlsx
+++ b/config_11.17/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="1894">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8801,23 +8801,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rqtl_new</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>drt_block_new_player_happy_seven_day</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8862,6 +8845,14 @@
   </si>
   <si>
     <t>2020年11月23日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xrqtl_new</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9669,8 +9660,8 @@
   <dimension ref="A1:Q410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B417" sqref="B417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12243,7 +12234,7 @@
     </row>
     <row r="202" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="64" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B202" s="64" t="s">
         <v>332</v>
@@ -14022,15 +14013,8 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" s="27" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B410" s="27" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C410" s="3">
-        <v>337</v>
-      </c>
+      <c r="A410" s="27"/>
+      <c r="B410" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -14044,11 +14028,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G283" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L291" sqref="L291"/>
+      <selection pane="bottomRight" activeCell="I339" sqref="I339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23897,7 +23881,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23931,7 +23915,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23965,7 +23949,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23976,10 +23960,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D292" s="79" t="s">
         <v>1889</v>
-      </c>
-      <c r="D292" s="79" t="s">
-        <v>1890</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -23999,7 +23983,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -25132,7 +25116,7 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D328" s="26" t="s">
         <v>1848</v>
@@ -25286,18 +25270,37 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="333" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="17"/>
-      <c r="B333" s="17"/>
-      <c r="C333" s="17"/>
-      <c r="D333" s="17"/>
-      <c r="E333" s="17"/>
-      <c r="F333" s="17"/>
-      <c r="G333" s="17"/>
-      <c r="H333" s="17"/>
-      <c r="J333" s="17"/>
-      <c r="K333" s="17"/>
-      <c r="L333" s="16"/>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A333" s="26">
+        <v>332</v>
+      </c>
+      <c r="B333" s="26">
+        <v>1</v>
+      </c>
+      <c r="C333" s="30" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D333" s="26" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G333" s="26">
+        <v>337</v>
+      </c>
+      <c r="H333" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" s="26" t="s">
+        <v>1893</v>
+      </c>
+      <c r="K333" s="26">
+        <v>0</v>
+      </c>
+      <c r="L333" s="26" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="334" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="17"/>
@@ -25364,8 +25367,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C418" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C835" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B437" sqref="B437"/>
@@ -44581,7 +44584,7 @@
         <v>330</v>
       </c>
       <c r="C833" s="53" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D833" s="9">
         <v>1</v>
@@ -44604,7 +44607,7 @@
         <v>330</v>
       </c>
       <c r="C834" s="53" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D834" s="9">
         <v>3</v>
@@ -44627,10 +44630,10 @@
         <v>330</v>
       </c>
       <c r="C835" s="53" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D835" s="53" t="s">
         <v>1887</v>
-      </c>
-      <c r="D835" s="53" t="s">
-        <v>1888</v>
       </c>
       <c r="E835" s="9">
         <v>5</v>
@@ -44722,7 +44725,7 @@
         <v>866</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E839" s="9">
         <v>5</v>
@@ -45065,7 +45068,7 @@
         <v>1</v>
       </c>
       <c r="G853" s="106" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_11.17/permission_server_config.xlsx
+++ b/config_11.17/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -8889,6 +8889,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9750,9 +9751,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11011,7 +11012,9 @@
       <c r="B74" s="53" t="s">
         <v>1729</v>
       </c>
-      <c r="C74" s="57"/>
+      <c r="C74" s="57">
+        <v>22</v>
+      </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="I74" s="9"/>
@@ -11023,7 +11026,9 @@
       <c r="B75" s="53" t="s">
         <v>1730</v>
       </c>
-      <c r="C75" s="57"/>
+      <c r="C75" s="57">
+        <v>22</v>
+      </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="G75" s="9"/>
@@ -11036,7 +11041,9 @@
       <c r="B76" s="53" t="s">
         <v>1731</v>
       </c>
-      <c r="C76" s="57"/>
+      <c r="C76" s="57">
+        <v>22</v>
+      </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="I76" s="9"/>
@@ -11050,7 +11057,7 @@
         <v>1732</v>
       </c>
       <c r="C77" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -11183,7 +11190,9 @@
       <c r="B88" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="57"/>
+      <c r="C88" s="57">
+        <v>22</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
@@ -11192,7 +11201,9 @@
       <c r="B89" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="57"/>
+      <c r="C89" s="57">
+        <v>22</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
@@ -11201,7 +11212,9 @@
       <c r="B90" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="57"/>
+      <c r="C90" s="57">
+        <v>22</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
@@ -11211,7 +11224,7 @@
         <v>161</v>
       </c>
       <c r="C91" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -25482,7 +25495,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I866"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C831" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/config_11.17/permission_server_config.xlsx
+++ b/config_11.17/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="1905">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -7649,19 +7649,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_028_xycd</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>actp_own_task_p_027_mfflq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_029_hlqjd_hammer</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8938,6 +8930,45 @@
   </si>
   <si>
     <t>v10及以下</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_029_hlqjd_hammer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task_p_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>042</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_hlqjd_hammer</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9751,9 +9782,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74:C96"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10938,7 +10969,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -10956,7 +10987,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -10974,7 +11005,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -10992,7 +11023,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -11010,7 +11041,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C74" s="57">
         <v>22</v>
@@ -11024,7 +11055,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C75" s="57">
         <v>22</v>
@@ -11039,7 +11070,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C76" s="57">
         <v>22</v>
@@ -11054,7 +11085,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C77" s="57">
         <v>23</v>
@@ -11069,7 +11100,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -11084,7 +11115,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -11099,7 +11130,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -11114,7 +11145,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -11129,7 +11160,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12109,7 +12140,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -12324,7 +12355,7 @@
     </row>
     <row r="202" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="64" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B202" s="64" t="s">
         <v>332</v>
@@ -13741,10 +13772,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="27" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="B359" s="27" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C359" s="3">
         <v>8</v>
@@ -13763,10 +13794,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="27" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="C363" s="3">
         <v>332</v>
@@ -13777,7 +13808,7 @@
         <v>1476</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C364" s="3">
         <v>242</v>
@@ -13799,7 +13830,7 @@
         <v>1472</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="C366" s="3">
         <v>244</v>
@@ -13810,7 +13841,7 @@
         <v>1510</v>
       </c>
       <c r="B369" s="27" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C369" s="3">
         <v>248</v>
@@ -13818,7 +13849,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="27" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B371" s="27" t="s">
         <v>1534</v>
@@ -13884,10 +13915,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="27" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B382" s="27" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C382" s="3">
         <v>319</v>
@@ -13895,10 +13926,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="27" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B384" s="27" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C384" s="3">
         <v>326</v>
@@ -13906,10 +13937,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="27" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B386" s="27" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C386" s="3">
         <v>327</v>
@@ -13917,10 +13948,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="27" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C388" s="3">
         <v>328</v>
@@ -13928,10 +13959,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="27" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B390" s="27" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="C390" s="3">
         <v>319</v>
@@ -13939,10 +13970,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="34" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C392" s="8">
         <v>127</v>
@@ -13950,10 +13981,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C393" s="8">
         <v>128</v>
@@ -13961,10 +13992,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="C394" s="8">
         <v>129</v>
@@ -13972,10 +14003,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="C395" s="8">
         <v>130</v>
@@ -13983,10 +14014,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="C396" s="8">
         <v>131</v>
@@ -13994,10 +14025,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="C397" s="8">
         <v>132</v>
@@ -14005,10 +14036,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="C398" s="8">
         <v>133</v>
@@ -14016,10 +14047,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="34" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="C399" s="8">
         <v>134</v>
@@ -14027,10 +14058,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="34" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="C400" s="8">
         <v>135</v>
@@ -14038,10 +14069,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="27" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B402" s="27" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -14049,10 +14080,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B403" s="27" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14060,10 +14091,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="27" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B404" s="27" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -14071,10 +14102,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B405" s="27" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -14082,10 +14113,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="B406" s="27" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="C406" s="3">
         <v>333</v>
@@ -14093,10 +14124,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="27" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B408" s="27" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C408" s="3">
         <v>91</v>
@@ -14104,10 +14135,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="27" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B410" s="27" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="C410" s="3">
         <v>337</v>
@@ -14125,11 +14156,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G311" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G335" sqref="G335"/>
+      <selection pane="bottomRight" activeCell="C340" sqref="C340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14467,7 +14498,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1181</v>
@@ -20179,7 +20210,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -23581,7 +23612,7 @@
         <v>1</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D278" s="16" t="s">
         <v>1602</v>
@@ -23618,7 +23649,7 @@
         <v>1617</v>
       </c>
       <c r="D279" s="96" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="E279" s="95"/>
       <c r="F279" s="95"/>
@@ -23785,7 +23816,7 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>1635</v>
@@ -23819,7 +23850,7 @@
         <v>1</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D285" s="16" t="s">
         <v>1653</v>
@@ -24057,10 +24088,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1677</v>
+        <v>1901</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1674</v>
+        <v>1902</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24091,10 +24122,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -24123,7 +24154,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D294" s="16" t="s">
         <v>1604</v>
@@ -24155,7 +24186,7 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>1605</v>
@@ -24187,7 +24218,7 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D296" s="16" t="s">
         <v>1606</v>
@@ -24219,7 +24250,7 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D297" s="16" t="s">
         <v>1607</v>
@@ -24251,10 +24282,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -24283,10 +24314,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -24315,10 +24346,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -24347,10 +24378,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -24379,10 +24410,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -24411,10 +24442,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D303" s="16" t="s">
         <v>1695</v>
-      </c>
-      <c r="D303" s="16" t="s">
-        <v>1697</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -24443,10 +24474,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D304" s="30" t="s">
         <v>1696</v>
-      </c>
-      <c r="D304" s="30" t="s">
-        <v>1698</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -24475,10 +24506,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -24507,10 +24538,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -24539,7 +24570,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D307" s="16" t="s">
         <v>1605</v>
@@ -24571,7 +24602,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D308" s="16" t="s">
         <v>1606</v>
@@ -24603,7 +24634,7 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D309" s="16" t="s">
         <v>1607</v>
@@ -24635,10 +24666,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -24667,10 +24698,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -24699,10 +24730,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -24731,10 +24762,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -24763,10 +24794,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D314" s="30" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -24795,10 +24826,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -24827,10 +24858,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -24850,7 +24881,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -24861,10 +24892,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D317" s="30" t="s">
         <v>1746</v>
-      </c>
-      <c r="D317" s="30" t="s">
-        <v>1748</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -24882,7 +24913,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -24893,10 +24924,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -24914,7 +24945,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -24925,10 +24956,10 @@
         <v>1</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -24946,7 +24977,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -24957,10 +24988,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -24989,10 +25020,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="G321" s="26">
         <v>325</v>
@@ -25010,7 +25041,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="30" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -25021,10 +25052,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -25042,7 +25073,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -25053,10 +25084,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -25074,7 +25105,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -25085,10 +25116,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -25117,10 +25148,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25149,10 +25180,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25170,7 +25201,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -25181,10 +25212,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25202,7 +25233,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25213,10 +25244,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25245,10 +25276,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25277,10 +25308,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25309,10 +25340,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25341,10 +25372,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -25364,7 +25395,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="333" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.2">
@@ -25375,10 +25406,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="108" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="D333" s="108" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="E333" s="108"/>
       <c r="F333" s="108"/>
@@ -25397,8 +25428,8 @@
       <c r="K333" s="108">
         <v>1605571200</v>
       </c>
-      <c r="L333" s="101" t="s">
-        <v>1895</v>
+      <c r="L333" s="110" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="334" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.2">
@@ -25409,10 +25440,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="108" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="D334" s="108" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E334" s="108"/>
       <c r="F334" s="108"/>
@@ -25431,8 +25462,8 @@
       <c r="K334" s="108">
         <v>1605571200</v>
       </c>
-      <c r="L334" s="101" t="s">
-        <v>1895</v>
+      <c r="L334" s="110" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="335" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.2">
@@ -25443,10 +25474,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="108" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="D335" s="110" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="E335" s="108"/>
       <c r="F335" s="108"/>
@@ -25465,8 +25496,42 @@
       <c r="K335" s="108">
         <v>1605571200</v>
       </c>
-      <c r="L335" s="101" t="s">
-        <v>1895</v>
+      <c r="L335" s="110" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="108">
+        <v>335</v>
+      </c>
+      <c r="B336" s="108">
+        <v>1</v>
+      </c>
+      <c r="C336" s="110" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D336" s="110" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E336" s="108"/>
+      <c r="F336" s="108"/>
+      <c r="G336" s="108">
+        <v>341</v>
+      </c>
+      <c r="H336" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I336" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J336" s="108" t="s">
+        <v>468</v>
+      </c>
+      <c r="K336" s="108">
+        <v>1605571200</v>
+      </c>
+      <c r="L336" s="110" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -25496,10 +25561,10 @@
   <dimension ref="A1:I866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C831" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C849" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G863" sqref="G863"/>
+      <selection pane="bottomRight" activeCell="C866" sqref="C866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26083,7 +26148,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1053</v>
@@ -29628,7 +29693,7 @@
         <v>1046</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -29651,7 +29716,7 @@
         <v>1046</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -29660,7 +29725,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30042,7 +30107,7 @@
         <v>1046</v>
       </c>
       <c r="D196" s="105" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E196" s="103">
         <v>2</v>
@@ -30065,7 +30130,7 @@
         <v>1046</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -30074,7 +30139,7 @@
         <v>5</v>
       </c>
       <c r="G197" s="104" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -35623,7 +35688,7 @@
         <v>1046</v>
       </c>
       <c r="D438" s="53" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E438" s="9">
         <v>5</v>
@@ -35632,7 +35697,7 @@
         <v>1</v>
       </c>
       <c r="G438" s="53" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
@@ -35646,7 +35711,7 @@
         <v>1046</v>
       </c>
       <c r="D439" s="53" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="E439" s="9">
         <v>2</v>
@@ -35655,7 +35720,7 @@
         <v>2</v>
       </c>
       <c r="G439" s="53" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="440" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39350,7 +39415,7 @@
         <v>1169</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E600" s="8">
         <v>5</v>
@@ -39396,7 +39461,7 @@
         <v>1169</v>
       </c>
       <c r="D602" s="10" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E602" s="8">
         <v>5</v>
@@ -39419,7 +39484,7 @@
         <v>1169</v>
       </c>
       <c r="D603" s="10" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E603" s="14">
         <v>2</v>
@@ -39442,7 +39507,7 @@
         <v>1169</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E604" s="14">
         <v>2</v>
@@ -39488,7 +39553,7 @@
         <v>1169</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E606" s="14">
         <v>5</v>
@@ -39534,7 +39599,7 @@
         <v>1169</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E608" s="14">
         <v>5</v>
@@ -39557,7 +39622,7 @@
         <v>1169</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -39580,7 +39645,7 @@
         <v>1169</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E610" s="14">
         <v>2</v>
@@ -39626,7 +39691,7 @@
         <v>1169</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E612" s="8">
         <v>5</v>
@@ -39672,7 +39737,7 @@
         <v>1169</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E614" s="8">
         <v>5</v>
@@ -39695,7 +39760,7 @@
         <v>1169</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E615" s="14">
         <v>2</v>
@@ -39718,7 +39783,7 @@
         <v>1169</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E616" s="14">
         <v>2</v>
@@ -39764,7 +39829,7 @@
         <v>1169</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -39810,7 +39875,7 @@
         <v>1169</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -39833,7 +39898,7 @@
         <v>1169</v>
       </c>
       <c r="D621" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E621" s="14">
         <v>2</v>
@@ -39856,7 +39921,7 @@
         <v>1169</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E622" s="14">
         <v>2</v>
@@ -39902,7 +39967,7 @@
         <v>1169</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E624" s="8">
         <v>5</v>
@@ -39948,7 +40013,7 @@
         <v>1169</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E626" s="8">
         <v>5</v>
@@ -39971,7 +40036,7 @@
         <v>1169</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E627" s="14">
         <v>2</v>
@@ -39994,7 +40059,7 @@
         <v>1169</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E628" s="14">
         <v>2</v>
@@ -40040,7 +40105,7 @@
         <v>1169</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E630" s="8">
         <v>5</v>
@@ -40086,7 +40151,7 @@
         <v>1169</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E632" s="8">
         <v>5</v>
@@ -40109,7 +40174,7 @@
         <v>1169</v>
       </c>
       <c r="D633" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E633" s="14">
         <v>2</v>
@@ -40132,7 +40197,7 @@
         <v>1169</v>
       </c>
       <c r="D634" s="15" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E634" s="14">
         <v>2</v>
@@ -40667,7 +40732,7 @@
         <v>1046</v>
       </c>
       <c r="D657" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E657" s="8">
         <v>2</v>
@@ -40676,7 +40741,7 @@
         <v>1</v>
       </c>
       <c r="G657" s="53" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
@@ -41127,7 +41192,7 @@
         <v>1169</v>
       </c>
       <c r="D677" s="10" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="E677" s="8">
         <v>2</v>
@@ -42907,7 +42972,7 @@
         <v>1</v>
       </c>
       <c r="G754" s="15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
@@ -42976,7 +43041,7 @@
         <v>1</v>
       </c>
       <c r="G757" s="15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="758" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43045,7 +43110,7 @@
         <v>1</v>
       </c>
       <c r="G760" s="15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
@@ -43059,7 +43124,7 @@
         <v>1066</v>
       </c>
       <c r="D761" s="10" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="E761" s="8">
         <v>2</v>
@@ -43183,7 +43248,7 @@
         <v>1</v>
       </c>
       <c r="G766" s="15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -43220,7 +43285,7 @@
         <v>1046</v>
       </c>
       <c r="D768" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E768" s="8">
         <v>2</v>
@@ -43229,7 +43294,7 @@
         <v>1</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
@@ -43266,7 +43331,7 @@
         <v>1046</v>
       </c>
       <c r="D770" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E770" s="8">
         <v>2</v>
@@ -43275,7 +43340,7 @@
         <v>2</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -43312,7 +43377,7 @@
         <v>1046</v>
       </c>
       <c r="D772" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E772" s="8">
         <v>2</v>
@@ -43321,7 +43386,7 @@
         <v>3</v>
       </c>
       <c r="G772" s="10" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
@@ -43381,7 +43446,7 @@
         <v>1046</v>
       </c>
       <c r="D775" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E775" s="8">
         <v>2</v>
@@ -43390,7 +43455,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="10" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="776" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43413,7 +43478,7 @@
         <v>1</v>
       </c>
       <c r="G776" s="15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
@@ -43473,7 +43538,7 @@
         <v>1046</v>
       </c>
       <c r="D779" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E779" s="8">
         <v>2</v>
@@ -43482,7 +43547,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="780" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43505,7 +43570,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
@@ -43574,7 +43639,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
@@ -43588,7 +43653,7 @@
         <v>1046</v>
       </c>
       <c r="D784" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E784" s="8">
         <v>2</v>
@@ -43597,7 +43662,7 @@
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -43611,7 +43676,7 @@
         <v>1046</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E785" s="8">
         <v>2</v>
@@ -43620,7 +43685,7 @@
         <v>1</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.2">
@@ -43634,7 +43699,7 @@
         <v>1046</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E786" s="8">
         <v>5</v>
@@ -43643,7 +43708,7 @@
         <v>1</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -43657,7 +43722,7 @@
         <v>1066</v>
       </c>
       <c r="D787" s="10" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="E787" s="8">
         <v>2</v>
@@ -43680,7 +43745,7 @@
         <v>1046</v>
       </c>
       <c r="D788" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E788" s="8">
         <v>5</v>
@@ -43689,7 +43754,7 @@
         <v>1</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -43726,7 +43791,7 @@
         <v>1046</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E790" s="8">
         <v>5</v>
@@ -43735,7 +43800,7 @@
         <v>2</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -43772,7 +43837,7 @@
         <v>1046</v>
       </c>
       <c r="D792" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E792" s="8">
         <v>5</v>
@@ -43781,7 +43846,7 @@
         <v>3</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
@@ -43841,7 +43906,7 @@
         <v>1046</v>
       </c>
       <c r="D795" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E795" s="8">
         <v>5</v>
@@ -43850,7 +43915,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="796" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43873,7 +43938,7 @@
         <v>1</v>
       </c>
       <c r="G796" s="15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
@@ -43933,7 +43998,7 @@
         <v>1046</v>
       </c>
       <c r="D799" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E799" s="8">
         <v>5</v>
@@ -43942,7 +44007,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="800" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43965,7 +44030,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
@@ -44034,7 +44099,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -44048,7 +44113,7 @@
         <v>1046</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E804" s="8">
         <v>5</v>
@@ -44057,7 +44122,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="10" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -44071,7 +44136,7 @@
         <v>1046</v>
       </c>
       <c r="D805" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E805" s="8">
         <v>5</v>
@@ -44080,7 +44145,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="10" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -44094,7 +44159,7 @@
         <v>1046</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E806" s="9">
         <v>2</v>
@@ -44103,7 +44168,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="53" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -44117,7 +44182,7 @@
         <v>1046</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E807" s="8">
         <v>5</v>
@@ -44126,7 +44191,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="10" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -44140,7 +44205,7 @@
         <v>1046</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E808" s="9">
         <v>2</v>
@@ -44149,7 +44214,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="53" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -44163,7 +44228,7 @@
         <v>1046</v>
       </c>
       <c r="D809" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E809" s="8">
         <v>5</v>
@@ -44172,7 +44237,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="10" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -44186,7 +44251,7 @@
         <v>1046</v>
       </c>
       <c r="D810" s="9" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E810" s="9">
         <v>5</v>
@@ -44195,7 +44260,7 @@
         <v>1</v>
       </c>
       <c r="G810" s="9" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
@@ -44209,7 +44274,7 @@
         <v>1046</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E811" s="9">
         <v>2</v>
@@ -44218,7 +44283,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="53" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -44232,7 +44297,7 @@
         <v>1046</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E812" s="9">
         <v>5</v>
@@ -44255,7 +44320,7 @@
         <v>1046</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E813" s="9">
         <v>5</v>
@@ -44264,7 +44329,7 @@
         <v>1</v>
       </c>
       <c r="G813" s="53" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -44301,7 +44366,7 @@
         <v>1046</v>
       </c>
       <c r="D815" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E815" s="9">
         <v>5</v>
@@ -44393,7 +44458,7 @@
         <v>1046</v>
       </c>
       <c r="D819" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E819" s="9">
         <v>5</v>
@@ -44413,19 +44478,19 @@
         <v>324</v>
       </c>
       <c r="C820" s="10" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D820" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E820" s="8">
+        <v>2</v>
+      </c>
+      <c r="F820" s="8">
+        <v>1</v>
+      </c>
+      <c r="G820" s="10" t="s">
         <v>1750</v>
-      </c>
-      <c r="D820" s="10" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E820" s="8">
-        <v>2</v>
-      </c>
-      <c r="F820" s="8">
-        <v>1</v>
-      </c>
-      <c r="G820" s="10" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -44439,7 +44504,7 @@
         <v>1046</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E821" s="8">
         <v>5</v>
@@ -44448,7 +44513,7 @@
         <v>1</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -44462,7 +44527,7 @@
         <v>866</v>
       </c>
       <c r="D822" s="10" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="E822" s="8">
         <v>2</v>
@@ -44485,7 +44550,7 @@
         <v>1046</v>
       </c>
       <c r="D823" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E823" s="8">
         <v>5</v>
@@ -44494,7 +44559,7 @@
         <v>2</v>
       </c>
       <c r="G823" s="10" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
@@ -44531,7 +44596,7 @@
         <v>1046</v>
       </c>
       <c r="D825" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E825" s="8">
         <v>5</v>
@@ -44540,7 +44605,7 @@
         <v>3</v>
       </c>
       <c r="G825" s="10" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
@@ -44554,7 +44619,7 @@
         <v>1046</v>
       </c>
       <c r="D826" s="10" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E826" s="9">
         <v>5</v>
@@ -44577,7 +44642,7 @@
         <v>1046</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E827" s="9">
         <v>2</v>
@@ -44586,7 +44651,7 @@
         <v>1</v>
       </c>
       <c r="G827" s="9" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="828" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44600,7 +44665,7 @@
         <v>1046</v>
       </c>
       <c r="D828" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E828" s="14">
         <v>2</v>
@@ -44609,7 +44674,7 @@
         <v>1</v>
       </c>
       <c r="G828" s="15" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -44623,7 +44688,7 @@
         <v>1046</v>
       </c>
       <c r="D829" s="10" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E829" s="8">
         <v>2</v>
@@ -44632,7 +44697,7 @@
         <v>2</v>
       </c>
       <c r="G829" s="10" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -44646,7 +44711,7 @@
         <v>1046</v>
       </c>
       <c r="D830" s="10" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="E830" s="8">
         <v>2</v>
@@ -44666,10 +44731,10 @@
         <v>328</v>
       </c>
       <c r="C831" s="53" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -44678,7 +44743,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="9" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -44692,7 +44757,7 @@
         <v>1046</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -44701,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="53" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -44715,7 +44780,7 @@
         <v>898</v>
       </c>
       <c r="D833" s="9" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="E833" s="9">
         <v>5</v>
@@ -44724,7 +44789,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="9" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -44738,7 +44803,7 @@
         <v>1046</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E834" s="9">
         <v>5</v>
@@ -44747,7 +44812,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -44758,7 +44823,7 @@
         <v>330</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="D835" s="9">
         <v>1</v>
@@ -44770,7 +44835,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -44781,7 +44846,7 @@
         <v>330</v>
       </c>
       <c r="C836" s="53" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="D836" s="9">
         <v>3</v>
@@ -44793,7 +44858,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="53" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -44804,10 +44869,10 @@
         <v>330</v>
       </c>
       <c r="C837" s="53" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D837" s="53" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="E837" s="9">
         <v>5</v>
@@ -44816,7 +44881,7 @@
         <v>1</v>
       </c>
       <c r="G837" s="53" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -44830,16 +44895,16 @@
         <v>866</v>
       </c>
       <c r="D838" s="10" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E838" s="9">
+        <v>2</v>
+      </c>
+      <c r="F838" s="9">
+        <v>2</v>
+      </c>
+      <c r="G838" s="53" t="s">
         <v>1816</v>
-      </c>
-      <c r="E838" s="9">
-        <v>2</v>
-      </c>
-      <c r="F838" s="9">
-        <v>2</v>
-      </c>
-      <c r="G838" s="53" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -44862,7 +44927,7 @@
         <v>2</v>
       </c>
       <c r="G839" s="9" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -44885,7 +44950,7 @@
         <v>3</v>
       </c>
       <c r="G840" s="53" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -44899,7 +44964,7 @@
         <v>866</v>
       </c>
       <c r="D841" s="9" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="E841" s="9">
         <v>5</v>
@@ -44908,7 +44973,7 @@
         <v>3</v>
       </c>
       <c r="G841" s="9" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -44931,7 +44996,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -44954,7 +45019,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -44977,7 +45042,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="53" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -45000,7 +45065,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="53" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.2">
@@ -45014,7 +45079,7 @@
         <v>1046</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E846" s="9">
         <v>5</v>
@@ -45023,7 +45088,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="53" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -45066,7 +45131,7 @@
         <v>1046</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E848" s="9">
         <v>2</v>
@@ -45075,7 +45140,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="9" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.2">
@@ -45118,7 +45183,7 @@
         <v>1046</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E850" s="9">
         <v>2</v>
@@ -45127,7 +45192,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="9" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="851" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -45138,10 +45203,10 @@
         <v>336</v>
       </c>
       <c r="C851" s="98" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D851" s="99" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="E851" s="98">
         <v>5</v>
@@ -45150,7 +45215,7 @@
         <v>1</v>
       </c>
       <c r="G851" s="99" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.2">
@@ -45164,7 +45229,7 @@
         <v>1046</v>
       </c>
       <c r="D852" s="9" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E852" s="9">
         <v>5</v>
@@ -45173,7 +45238,7 @@
         <v>1</v>
       </c>
       <c r="G852" s="9" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="853" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45187,7 +45252,7 @@
         <v>1046</v>
       </c>
       <c r="D853" s="107" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="E853" s="106">
         <v>2</v>
@@ -45196,7 +45261,7 @@
         <v>1</v>
       </c>
       <c r="G853" s="107" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="854" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45219,7 +45284,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="107" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="855" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45242,7 +45307,7 @@
         <v>1</v>
       </c>
       <c r="G855" s="106" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="856" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
@@ -45265,7 +45330,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="112" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
@@ -45288,7 +45353,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="112" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
@@ -45311,7 +45376,7 @@
         <v>1</v>
       </c>
       <c r="G858" s="112" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="859" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
@@ -45334,7 +45399,7 @@
         <v>1</v>
       </c>
       <c r="G859" s="112" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="860" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
@@ -45357,7 +45422,7 @@
         <v>1</v>
       </c>
       <c r="G860" s="112" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="861" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
@@ -45380,7 +45445,7 @@
         <v>1</v>
       </c>
       <c r="G861" s="112" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="862" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
@@ -45403,7 +45468,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="112" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="863" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
@@ -45426,7 +45491,7 @@
         <v>1</v>
       </c>
       <c r="G863" s="112" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="864" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
@@ -45449,16 +45514,54 @@
         <v>1</v>
       </c>
       <c r="G864" s="112" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="865" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D865" s="10"/>
-      <c r="G865" s="10"/>
-    </row>
-    <row r="866" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D866" s="10"/>
-      <c r="G866" s="10"/>
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A865" s="111">
+        <v>864</v>
+      </c>
+      <c r="B865" s="111">
+        <v>341</v>
+      </c>
+      <c r="C865" s="111" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D865" s="112" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E865" s="111">
+        <v>5</v>
+      </c>
+      <c r="F865" s="111">
+        <v>1</v>
+      </c>
+      <c r="G865" s="112" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A866" s="111">
+        <v>865</v>
+      </c>
+      <c r="B866" s="111">
+        <v>341</v>
+      </c>
+      <c r="C866" s="112" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D866" s="111">
+        <v>1</v>
+      </c>
+      <c r="E866" s="111">
+        <v>3</v>
+      </c>
+      <c r="F866" s="111">
+        <v>1</v>
+      </c>
+      <c r="G866" s="111" t="s">
+        <v>1507</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -45590,7 +45693,7 @@
         <v>898</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -45607,13 +45710,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -45633,7 +45736,7 @@
         <v>1631</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1626</v>
@@ -45659,7 +45762,7 @@
         <v>898</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -45676,13 +45779,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -45691,7 +45794,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
   </sheetData>
@@ -45784,7 +45887,7 @@
         <v>866</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/config_11.17/permission_server_config.xlsx
+++ b/config_11.17/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="1903">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8938,37 +8938,6 @@
   </si>
   <si>
     <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>actp_own_task_p_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>042</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_hlqjd_hammer</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -14157,10 +14126,10 @@
   <dimension ref="A1:O342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C340" sqref="C340"/>
+      <selection pane="bottomRight" activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24107,11 +24076,11 @@
       <c r="J292" s="78" t="s">
         <v>1668</v>
       </c>
-      <c r="K292" s="78">
-        <v>1600099200</v>
-      </c>
-      <c r="L292" s="78" t="s">
-        <v>1669</v>
+      <c r="K292" s="108">
+        <v>1605542400</v>
+      </c>
+      <c r="L292" s="110" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -25500,39 +25469,18 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="336" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="108">
-        <v>335</v>
-      </c>
-      <c r="B336" s="108">
-        <v>1</v>
-      </c>
-      <c r="C336" s="110" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D336" s="110" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E336" s="108"/>
-      <c r="F336" s="108"/>
-      <c r="G336" s="108">
-        <v>341</v>
-      </c>
-      <c r="H336" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="I336" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J336" s="108" t="s">
-        <v>468</v>
-      </c>
-      <c r="K336" s="108">
-        <v>1605571200</v>
-      </c>
-      <c r="L336" s="110" t="s">
-        <v>1893</v>
-      </c>
+    <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="17"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="16"/>
+      <c r="D336" s="16"/>
+      <c r="E336" s="17"/>
+      <c r="F336" s="17"/>
+      <c r="G336" s="17"/>
+      <c r="H336" s="17"/>
+      <c r="J336" s="17"/>
+      <c r="K336" s="17"/>
+      <c r="L336" s="16"/>
     </row>
     <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17"/>
@@ -25561,10 +25509,10 @@
   <dimension ref="A1:I866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C849" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C843" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C866" sqref="C866"/>
+      <selection pane="bottomRight" activeCell="A865" activeCellId="1" sqref="A866:XFD866 A865:XFD865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45517,51 +45465,12 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="865" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A865" s="111">
-        <v>864</v>
-      </c>
-      <c r="B865" s="111">
-        <v>341</v>
-      </c>
-      <c r="C865" s="111" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D865" s="112" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E865" s="111">
-        <v>5</v>
-      </c>
-      <c r="F865" s="111">
-        <v>1</v>
-      </c>
-      <c r="G865" s="112" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="866" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A866" s="111">
-        <v>865</v>
-      </c>
-      <c r="B866" s="111">
-        <v>341</v>
-      </c>
-      <c r="C866" s="112" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D866" s="111">
-        <v>1</v>
-      </c>
-      <c r="E866" s="111">
-        <v>3</v>
-      </c>
-      <c r="F866" s="111">
-        <v>1</v>
-      </c>
-      <c r="G866" s="111" t="s">
-        <v>1507</v>
-      </c>
+    <row r="865" spans="3:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D865" s="10"/>
+      <c r="G865" s="10"/>
+    </row>
+    <row r="866" spans="3:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C866" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_11.17/permission_server_config.xlsx
+++ b/config_11.17/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4404" uniqueCount="1894">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -7533,10 +7533,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2020年9月21日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>VIP</t>
     </r>
@@ -8842,102 +8838,34 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_bag_hlqjd_042_v1v3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_hlqjd_042_v4v7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_hlqjd_042_v8v10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋v1-v3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋v4-v7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>欢乐敲金蛋v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_029_hlqjd_hammer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2020年11月23日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_new_player</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>v7及以下</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8及以上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>v10及以下</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_029_hlqjd_hammer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
+  </si>
+  <si>
+    <t>2020年11月23日23:59:59结束</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9168,7 +9096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9462,15 +9390,8 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10938,7 +10859,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -10956,7 +10877,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -10974,7 +10895,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -10992,7 +10913,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -11010,7 +10931,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C74" s="57">
         <v>22</v>
@@ -11024,7 +10945,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C75" s="57">
         <v>22</v>
@@ -11039,7 +10960,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C76" s="57">
         <v>22</v>
@@ -11054,7 +10975,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C77" s="57">
         <v>23</v>
@@ -11069,7 +10990,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -11084,7 +11005,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -11099,7 +11020,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -11114,7 +11035,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -11129,7 +11050,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12109,7 +12030,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -12324,7 +12245,7 @@
     </row>
     <row r="202" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="64" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B202" s="64" t="s">
         <v>332</v>
@@ -13741,10 +13662,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="27" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B359" s="27" t="s">
         <v>1864</v>
-      </c>
-      <c r="B359" s="27" t="s">
-        <v>1865</v>
       </c>
       <c r="C359" s="3">
         <v>8</v>
@@ -13763,10 +13684,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="27" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B363" s="34" t="s">
         <v>1825</v>
-      </c>
-      <c r="B363" s="34" t="s">
-        <v>1826</v>
       </c>
       <c r="C363" s="3">
         <v>332</v>
@@ -13777,7 +13698,7 @@
         <v>1476</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C364" s="3">
         <v>242</v>
@@ -13799,7 +13720,7 @@
         <v>1472</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C366" s="3">
         <v>244</v>
@@ -13810,7 +13731,7 @@
         <v>1510</v>
       </c>
       <c r="B369" s="27" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C369" s="3">
         <v>248</v>
@@ -13818,7 +13739,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="27" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B371" s="27" t="s">
         <v>1534</v>
@@ -13884,10 +13805,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="27" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B382" s="27" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C382" s="3">
         <v>319</v>
@@ -13895,10 +13816,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="27" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B384" s="27" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C384" s="3">
         <v>326</v>
@@ -13906,10 +13827,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="27" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B386" s="27" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C386" s="3">
         <v>327</v>
@@ -13917,10 +13838,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="27" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C388" s="3">
         <v>328</v>
@@ -13928,10 +13849,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="27" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B390" s="27" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C390" s="3">
         <v>319</v>
@@ -13939,10 +13860,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="34" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C392" s="8">
         <v>127</v>
@@ -13950,10 +13871,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C393" s="8">
         <v>128</v>
@@ -13961,10 +13882,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C394" s="8">
         <v>129</v>
@@ -13972,10 +13893,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C395" s="8">
         <v>130</v>
@@ -13983,10 +13904,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C396" s="8">
         <v>131</v>
@@ -13994,10 +13915,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C397" s="8">
         <v>132</v>
@@ -14005,10 +13926,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C398" s="8">
         <v>133</v>
@@ -14016,10 +13937,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="34" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C399" s="8">
         <v>134</v>
@@ -14027,10 +13948,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="34" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C400" s="8">
         <v>135</v>
@@ -14038,10 +13959,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="27" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B402" s="27" t="s">
         <v>1833</v>
-      </c>
-      <c r="B402" s="27" t="s">
-        <v>1834</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -14049,10 +13970,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B403" s="27" t="s">
         <v>1835</v>
-      </c>
-      <c r="B403" s="27" t="s">
-        <v>1836</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14060,10 +13981,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="27" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B404" s="27" t="s">
         <v>1837</v>
-      </c>
-      <c r="B404" s="27" t="s">
-        <v>1838</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -14071,10 +13992,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B405" s="27" t="s">
         <v>1839</v>
-      </c>
-      <c r="B405" s="27" t="s">
-        <v>1840</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -14082,10 +14003,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B406" s="27" t="s">
         <v>1841</v>
-      </c>
-      <c r="B406" s="27" t="s">
-        <v>1842</v>
       </c>
       <c r="C406" s="3">
         <v>333</v>
@@ -14093,10 +14014,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="27" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B408" s="27" t="s">
         <v>1848</v>
-      </c>
-      <c r="B408" s="27" t="s">
-        <v>1849</v>
       </c>
       <c r="C408" s="3">
         <v>91</v>
@@ -14104,10 +14025,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="27" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B410" s="27" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C410" s="3">
         <v>337</v>
@@ -14129,7 +14050,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="G283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C292" sqref="C292"/>
+      <selection pane="bottomRight" activeCell="L291" sqref="L291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14467,7 +14388,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1181</v>
@@ -20179,7 +20100,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -23581,7 +23502,7 @@
         <v>1</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D278" s="16" t="s">
         <v>1602</v>
@@ -23618,7 +23539,7 @@
         <v>1617</v>
       </c>
       <c r="D279" s="96" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E279" s="95"/>
       <c r="F279" s="95"/>
@@ -23785,7 +23706,7 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>1635</v>
@@ -23819,7 +23740,7 @@
         <v>1</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D285" s="16" t="s">
         <v>1653</v>
@@ -23975,10 +23896,10 @@
         <v>1668</v>
       </c>
       <c r="K289" s="78">
-        <v>1600128000</v>
+        <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1669</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24009,10 +23930,10 @@
         <v>1668</v>
       </c>
       <c r="K290" s="78">
-        <v>1600128000</v>
+        <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1669</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24043,10 +23964,10 @@
         <v>1668</v>
       </c>
       <c r="K291" s="78">
-        <v>1600128000</v>
+        <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1669</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24057,10 +23978,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1901</v>
+        <v>1890</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1902</v>
+        <v>1891</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24079,7 +24000,7 @@
       <c r="K292" s="108">
         <v>1605542400</v>
       </c>
-      <c r="L292" s="110" t="s">
+      <c r="L292" s="109" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -24091,10 +24012,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -24123,7 +24044,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D294" s="16" t="s">
         <v>1604</v>
@@ -24155,7 +24076,7 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>1605</v>
@@ -24187,7 +24108,7 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D296" s="16" t="s">
         <v>1606</v>
@@ -24219,7 +24140,7 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D297" s="16" t="s">
         <v>1607</v>
@@ -24251,10 +24172,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -24283,10 +24204,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -24315,10 +24236,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -24347,10 +24268,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -24379,10 +24300,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -24411,10 +24332,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -24443,10 +24364,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -24475,10 +24396,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -24507,10 +24428,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -24539,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D307" s="16" t="s">
         <v>1605</v>
@@ -24571,7 +24492,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D308" s="16" t="s">
         <v>1606</v>
@@ -24603,7 +24524,7 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D309" s="16" t="s">
         <v>1607</v>
@@ -24635,10 +24556,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D310" s="30" t="s">
         <v>1708</v>
-      </c>
-      <c r="D310" s="30" t="s">
-        <v>1709</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -24667,10 +24588,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -24699,10 +24620,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D312" s="30" t="s">
         <v>1712</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>1713</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -24731,10 +24652,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -24763,10 +24684,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D314" s="30" t="s">
         <v>1718</v>
-      </c>
-      <c r="D314" s="30" t="s">
-        <v>1719</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -24795,10 +24716,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -24827,10 +24748,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D316" s="16" t="s">
         <v>1739</v>
-      </c>
-      <c r="D316" s="16" t="s">
-        <v>1740</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -24850,7 +24771,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -24861,10 +24782,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -24882,7 +24803,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -24893,10 +24814,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -24914,7 +24835,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -24925,10 +24846,10 @@
         <v>1</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -24946,7 +24867,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -24957,10 +24878,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -24989,10 +24910,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="30" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D321" s="26" t="s">
         <v>1753</v>
-      </c>
-      <c r="D321" s="26" t="s">
-        <v>1754</v>
       </c>
       <c r="G321" s="26">
         <v>325</v>
@@ -25010,7 +24931,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="30" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -25021,10 +24942,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -25042,7 +24963,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -25053,10 +24974,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -25074,7 +24995,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -25085,10 +25006,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -25117,10 +25038,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25149,10 +25070,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25170,7 +25091,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -25181,10 +25102,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25202,7 +25123,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25213,10 +25134,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25245,10 +25166,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D329" s="26" t="s">
         <v>1851</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1852</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25277,10 +25198,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25309,10 +25230,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D331" s="26" t="s">
         <v>1854</v>
-      </c>
-      <c r="D331" s="26" t="s">
-        <v>1855</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25341,10 +25262,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -25364,110 +25285,47 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="333" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="108">
-        <v>332</v>
-      </c>
-      <c r="B333" s="108">
-        <v>1</v>
-      </c>
-      <c r="C333" s="108" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D333" s="108" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E333" s="108"/>
-      <c r="F333" s="108"/>
-      <c r="G333" s="108">
-        <v>338</v>
-      </c>
-      <c r="H333" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="I333" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" s="108" t="s">
-        <v>468</v>
-      </c>
-      <c r="K333" s="108">
-        <v>1605571200</v>
-      </c>
-      <c r="L333" s="110" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="334" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="108">
-        <v>333</v>
-      </c>
-      <c r="B334" s="108">
-        <v>1</v>
-      </c>
-      <c r="C334" s="108" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D334" s="108" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E334" s="108"/>
-      <c r="F334" s="108"/>
-      <c r="G334" s="108">
-        <v>339</v>
-      </c>
-      <c r="H334" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="I334" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J334" s="108" t="s">
-        <v>468</v>
-      </c>
-      <c r="K334" s="108">
-        <v>1605571200</v>
-      </c>
-      <c r="L334" s="110" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="108">
-        <v>334</v>
-      </c>
-      <c r="B335" s="108">
-        <v>1</v>
-      </c>
-      <c r="C335" s="108" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D335" s="110" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E335" s="108"/>
-      <c r="F335" s="108"/>
-      <c r="G335" s="108">
-        <v>340</v>
-      </c>
-      <c r="H335" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="I335" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J335" s="108" t="s">
-        <v>468</v>
-      </c>
-      <c r="K335" s="108">
-        <v>1605571200</v>
-      </c>
-      <c r="L335" s="110" t="s">
-        <v>1893</v>
-      </c>
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="17"/>
+      <c r="B333" s="17"/>
+      <c r="C333" s="17"/>
+      <c r="D333" s="17"/>
+      <c r="E333" s="17"/>
+      <c r="F333" s="17"/>
+      <c r="G333" s="17"/>
+      <c r="H333" s="17"/>
+      <c r="J333" s="17"/>
+      <c r="K333" s="17"/>
+      <c r="L333" s="16"/>
+    </row>
+    <row r="334" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="17"/>
+      <c r="B334" s="17"/>
+      <c r="C334" s="17"/>
+      <c r="D334" s="17"/>
+      <c r="E334" s="17"/>
+      <c r="F334" s="17"/>
+      <c r="G334" s="17"/>
+      <c r="H334" s="17"/>
+      <c r="J334" s="17"/>
+      <c r="K334" s="17"/>
+      <c r="L334" s="16"/>
+    </row>
+    <row r="335" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="17"/>
+      <c r="B335" s="17"/>
+      <c r="C335" s="17"/>
+      <c r="D335" s="16"/>
+      <c r="E335" s="17"/>
+      <c r="F335" s="17"/>
+      <c r="G335" s="17"/>
+      <c r="H335" s="17"/>
+      <c r="J335" s="17"/>
+      <c r="K335" s="17"/>
+      <c r="L335" s="16"/>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="17"/>
@@ -25509,10 +25367,10 @@
   <dimension ref="A1:I866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C843" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C831" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A865" activeCellId="1" sqref="A866:XFD866 A865:XFD865"/>
+      <selection pane="bottomRight" activeCell="A856" sqref="A856:XFD864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26096,7 +25954,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1053</v>
@@ -29641,7 +29499,7 @@
         <v>1046</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -29664,7 +29522,7 @@
         <v>1046</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -29673,7 +29531,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30055,7 +29913,7 @@
         <v>1046</v>
       </c>
       <c r="D196" s="105" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E196" s="103">
         <v>2</v>
@@ -30078,7 +29936,7 @@
         <v>1046</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -30087,7 +29945,7 @@
         <v>5</v>
       </c>
       <c r="G197" s="104" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -35636,7 +35494,7 @@
         <v>1046</v>
       </c>
       <c r="D438" s="53" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E438" s="9">
         <v>5</v>
@@ -35645,7 +35503,7 @@
         <v>1</v>
       </c>
       <c r="G438" s="53" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
@@ -35659,7 +35517,7 @@
         <v>1046</v>
       </c>
       <c r="D439" s="53" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E439" s="9">
         <v>2</v>
@@ -35668,7 +35526,7 @@
         <v>2</v>
       </c>
       <c r="G439" s="53" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="440" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39363,7 +39221,7 @@
         <v>1169</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E600" s="8">
         <v>5</v>
@@ -39409,7 +39267,7 @@
         <v>1169</v>
       </c>
       <c r="D602" s="10" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E602" s="8">
         <v>5</v>
@@ -39432,7 +39290,7 @@
         <v>1169</v>
       </c>
       <c r="D603" s="10" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E603" s="14">
         <v>2</v>
@@ -39455,7 +39313,7 @@
         <v>1169</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E604" s="14">
         <v>2</v>
@@ -39501,7 +39359,7 @@
         <v>1169</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E606" s="14">
         <v>5</v>
@@ -39547,7 +39405,7 @@
         <v>1169</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E608" s="14">
         <v>5</v>
@@ -39570,7 +39428,7 @@
         <v>1169</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E609" s="14">
         <v>2</v>
@@ -39593,7 +39451,7 @@
         <v>1169</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E610" s="14">
         <v>2</v>
@@ -39639,7 +39497,7 @@
         <v>1169</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E612" s="8">
         <v>5</v>
@@ -39685,7 +39543,7 @@
         <v>1169</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E614" s="8">
         <v>5</v>
@@ -39708,7 +39566,7 @@
         <v>1169</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E615" s="14">
         <v>2</v>
@@ -39731,7 +39589,7 @@
         <v>1169</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E616" s="14">
         <v>2</v>
@@ -39777,7 +39635,7 @@
         <v>1169</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -39823,7 +39681,7 @@
         <v>1169</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -39846,7 +39704,7 @@
         <v>1169</v>
       </c>
       <c r="D621" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E621" s="14">
         <v>2</v>
@@ -39869,7 +39727,7 @@
         <v>1169</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E622" s="14">
         <v>2</v>
@@ -39915,7 +39773,7 @@
         <v>1169</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E624" s="8">
         <v>5</v>
@@ -39961,7 +39819,7 @@
         <v>1169</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E626" s="8">
         <v>5</v>
@@ -39984,7 +39842,7 @@
         <v>1169</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E627" s="14">
         <v>2</v>
@@ -40007,7 +39865,7 @@
         <v>1169</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E628" s="14">
         <v>2</v>
@@ -40053,7 +39911,7 @@
         <v>1169</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E630" s="8">
         <v>5</v>
@@ -40099,7 +39957,7 @@
         <v>1169</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E632" s="8">
         <v>5</v>
@@ -40122,7 +39980,7 @@
         <v>1169</v>
       </c>
       <c r="D633" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E633" s="14">
         <v>2</v>
@@ -40145,7 +40003,7 @@
         <v>1169</v>
       </c>
       <c r="D634" s="15" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E634" s="14">
         <v>2</v>
@@ -40680,7 +40538,7 @@
         <v>1046</v>
       </c>
       <c r="D657" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E657" s="8">
         <v>2</v>
@@ -40689,7 +40547,7 @@
         <v>1</v>
       </c>
       <c r="G657" s="53" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
@@ -41140,7 +40998,7 @@
         <v>1169</v>
       </c>
       <c r="D677" s="10" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E677" s="8">
         <v>2</v>
@@ -42644,7 +42502,7 @@
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
@@ -42667,7 +42525,7 @@
         <v>1</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
@@ -42713,7 +42571,7 @@
         <v>1</v>
       </c>
       <c r="G745" s="19" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
@@ -42736,7 +42594,7 @@
         <v>1</v>
       </c>
       <c r="G746" s="19" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
@@ -42920,7 +42778,7 @@
         <v>1</v>
       </c>
       <c r="G754" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
@@ -42989,7 +42847,7 @@
         <v>1</v>
       </c>
       <c r="G757" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="758" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43058,7 +42916,7 @@
         <v>1</v>
       </c>
       <c r="G760" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
@@ -43072,7 +42930,7 @@
         <v>1066</v>
       </c>
       <c r="D761" s="10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E761" s="8">
         <v>2</v>
@@ -43196,7 +43054,7 @@
         <v>1</v>
       </c>
       <c r="G766" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -43233,7 +43091,7 @@
         <v>1046</v>
       </c>
       <c r="D768" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E768" s="8">
         <v>2</v>
@@ -43242,7 +43100,7 @@
         <v>1</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
@@ -43279,7 +43137,7 @@
         <v>1046</v>
       </c>
       <c r="D770" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E770" s="8">
         <v>2</v>
@@ -43288,7 +43146,7 @@
         <v>2</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -43325,7 +43183,7 @@
         <v>1046</v>
       </c>
       <c r="D772" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E772" s="8">
         <v>2</v>
@@ -43334,7 +43192,7 @@
         <v>3</v>
       </c>
       <c r="G772" s="10" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
@@ -43394,7 +43252,7 @@
         <v>1046</v>
       </c>
       <c r="D775" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E775" s="8">
         <v>2</v>
@@ -43403,7 +43261,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="776" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43426,7 +43284,7 @@
         <v>1</v>
       </c>
       <c r="G776" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
@@ -43486,7 +43344,7 @@
         <v>1046</v>
       </c>
       <c r="D779" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E779" s="8">
         <v>2</v>
@@ -43495,7 +43353,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="780" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43518,7 +43376,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
@@ -43587,7 +43445,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
@@ -43601,7 +43459,7 @@
         <v>1046</v>
       </c>
       <c r="D784" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E784" s="8">
         <v>2</v>
@@ -43610,7 +43468,7 @@
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -43624,7 +43482,7 @@
         <v>1046</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E785" s="8">
         <v>2</v>
@@ -43633,7 +43491,7 @@
         <v>1</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.2">
@@ -43647,7 +43505,7 @@
         <v>1046</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E786" s="8">
         <v>5</v>
@@ -43656,7 +43514,7 @@
         <v>1</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -43670,7 +43528,7 @@
         <v>1066</v>
       </c>
       <c r="D787" s="10" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E787" s="8">
         <v>2</v>
@@ -43693,7 +43551,7 @@
         <v>1046</v>
       </c>
       <c r="D788" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E788" s="8">
         <v>5</v>
@@ -43702,7 +43560,7 @@
         <v>1</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -43739,7 +43597,7 @@
         <v>1046</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E790" s="8">
         <v>5</v>
@@ -43748,7 +43606,7 @@
         <v>2</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -43785,7 +43643,7 @@
         <v>1046</v>
       </c>
       <c r="D792" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E792" s="8">
         <v>5</v>
@@ -43794,7 +43652,7 @@
         <v>3</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
@@ -43854,7 +43712,7 @@
         <v>1046</v>
       </c>
       <c r="D795" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E795" s="8">
         <v>5</v>
@@ -43863,7 +43721,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="796" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43886,7 +43744,7 @@
         <v>1</v>
       </c>
       <c r="G796" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
@@ -43946,7 +43804,7 @@
         <v>1046</v>
       </c>
       <c r="D799" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E799" s="8">
         <v>5</v>
@@ -43955,7 +43813,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="800" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43978,7 +43836,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
@@ -44047,7 +43905,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -44061,7 +43919,7 @@
         <v>1046</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E804" s="8">
         <v>5</v>
@@ -44070,7 +43928,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -44084,7 +43942,7 @@
         <v>1046</v>
       </c>
       <c r="D805" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E805" s="8">
         <v>5</v>
@@ -44093,7 +43951,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -44107,7 +43965,7 @@
         <v>1046</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E806" s="9">
         <v>2</v>
@@ -44116,7 +43974,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="53" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -44130,7 +43988,7 @@
         <v>1046</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E807" s="8">
         <v>5</v>
@@ -44139,7 +43997,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -44153,7 +44011,7 @@
         <v>1046</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E808" s="9">
         <v>2</v>
@@ -44162,7 +44020,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="53" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -44176,7 +44034,7 @@
         <v>1046</v>
       </c>
       <c r="D809" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E809" s="8">
         <v>5</v>
@@ -44185,7 +44043,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -44199,7 +44057,7 @@
         <v>1046</v>
       </c>
       <c r="D810" s="9" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E810" s="9">
         <v>5</v>
@@ -44208,7 +44066,7 @@
         <v>1</v>
       </c>
       <c r="G810" s="9" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
@@ -44222,7 +44080,7 @@
         <v>1046</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E811" s="9">
         <v>2</v>
@@ -44231,7 +44089,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="53" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -44245,7 +44103,7 @@
         <v>1046</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E812" s="9">
         <v>5</v>
@@ -44268,7 +44126,7 @@
         <v>1046</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E813" s="9">
         <v>5</v>
@@ -44277,7 +44135,7 @@
         <v>1</v>
       </c>
       <c r="G813" s="53" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -44314,7 +44172,7 @@
         <v>1046</v>
       </c>
       <c r="D815" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E815" s="9">
         <v>5</v>
@@ -44406,7 +44264,7 @@
         <v>1046</v>
       </c>
       <c r="D819" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E819" s="9">
         <v>5</v>
@@ -44426,19 +44284,19 @@
         <v>324</v>
       </c>
       <c r="C820" s="10" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D820" s="10" t="s">
         <v>1748</v>
       </c>
-      <c r="D820" s="10" t="s">
+      <c r="E820" s="8">
+        <v>2</v>
+      </c>
+      <c r="F820" s="8">
+        <v>1</v>
+      </c>
+      <c r="G820" s="10" t="s">
         <v>1749</v>
-      </c>
-      <c r="E820" s="8">
-        <v>2</v>
-      </c>
-      <c r="F820" s="8">
-        <v>1</v>
-      </c>
-      <c r="G820" s="10" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -44452,7 +44310,7 @@
         <v>1046</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E821" s="8">
         <v>5</v>
@@ -44461,7 +44319,7 @@
         <v>1</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -44475,7 +44333,7 @@
         <v>866</v>
       </c>
       <c r="D822" s="10" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E822" s="8">
         <v>2</v>
@@ -44498,7 +44356,7 @@
         <v>1046</v>
       </c>
       <c r="D823" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E823" s="8">
         <v>5</v>
@@ -44507,7 +44365,7 @@
         <v>2</v>
       </c>
       <c r="G823" s="10" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
@@ -44544,7 +44402,7 @@
         <v>1046</v>
       </c>
       <c r="D825" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E825" s="8">
         <v>5</v>
@@ -44553,7 +44411,7 @@
         <v>3</v>
       </c>
       <c r="G825" s="10" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
@@ -44567,7 +44425,7 @@
         <v>1046</v>
       </c>
       <c r="D826" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E826" s="9">
         <v>5</v>
@@ -44590,7 +44448,7 @@
         <v>1046</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E827" s="9">
         <v>2</v>
@@ -44599,7 +44457,7 @@
         <v>1</v>
       </c>
       <c r="G827" s="9" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="828" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44613,7 +44471,7 @@
         <v>1046</v>
       </c>
       <c r="D828" s="15" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E828" s="14">
         <v>2</v>
@@ -44622,7 +44480,7 @@
         <v>1</v>
       </c>
       <c r="G828" s="15" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -44636,16 +44494,16 @@
         <v>1046</v>
       </c>
       <c r="D829" s="10" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E829" s="8">
+        <v>2</v>
+      </c>
+      <c r="F829" s="8">
+        <v>2</v>
+      </c>
+      <c r="G829" s="10" t="s">
         <v>1830</v>
-      </c>
-      <c r="E829" s="8">
-        <v>2</v>
-      </c>
-      <c r="F829" s="8">
-        <v>2</v>
-      </c>
-      <c r="G829" s="10" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -44659,7 +44517,7 @@
         <v>1046</v>
       </c>
       <c r="D830" s="10" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E830" s="8">
         <v>2</v>
@@ -44679,10 +44537,10 @@
         <v>328</v>
       </c>
       <c r="C831" s="53" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -44691,7 +44549,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="9" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -44705,7 +44563,7 @@
         <v>1046</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -44714,7 +44572,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="53" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -44728,7 +44586,7 @@
         <v>898</v>
       </c>
       <c r="D833" s="9" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E833" s="9">
         <v>5</v>
@@ -44737,7 +44595,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="9" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -44751,7 +44609,7 @@
         <v>1046</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E834" s="9">
         <v>5</v>
@@ -44760,7 +44618,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -44771,7 +44629,7 @@
         <v>330</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>1894</v>
+        <v>1886</v>
       </c>
       <c r="D835" s="9">
         <v>1</v>
@@ -44783,7 +44641,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -44794,7 +44652,7 @@
         <v>330</v>
       </c>
       <c r="C836" s="53" t="s">
-        <v>1895</v>
+        <v>1887</v>
       </c>
       <c r="D836" s="9">
         <v>3</v>
@@ -44806,7 +44664,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="53" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -44817,10 +44675,10 @@
         <v>330</v>
       </c>
       <c r="C837" s="53" t="s">
-        <v>1896</v>
+        <v>1888</v>
       </c>
       <c r="D837" s="53" t="s">
-        <v>1897</v>
+        <v>1889</v>
       </c>
       <c r="E837" s="9">
         <v>5</v>
@@ -44829,7 +44687,7 @@
         <v>1</v>
       </c>
       <c r="G837" s="53" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -44843,7 +44701,7 @@
         <v>866</v>
       </c>
       <c r="D838" s="10" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -44852,7 +44710,7 @@
         <v>2</v>
       </c>
       <c r="G838" s="53" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -44875,7 +44733,7 @@
         <v>2</v>
       </c>
       <c r="G839" s="9" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -44898,7 +44756,7 @@
         <v>3</v>
       </c>
       <c r="G840" s="53" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -44912,7 +44770,7 @@
         <v>866</v>
       </c>
       <c r="D841" s="9" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E841" s="9">
         <v>5</v>
@@ -44921,7 +44779,7 @@
         <v>3</v>
       </c>
       <c r="G841" s="9" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -44944,7 +44802,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -44967,7 +44825,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -44990,7 +44848,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="53" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -45013,7 +44871,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="53" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.2">
@@ -45027,7 +44885,7 @@
         <v>1046</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E846" s="9">
         <v>5</v>
@@ -45036,7 +44894,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="53" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -45079,7 +44937,7 @@
         <v>1046</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E848" s="9">
         <v>2</v>
@@ -45088,7 +44946,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="9" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.2">
@@ -45131,7 +44989,7 @@
         <v>1046</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E850" s="9">
         <v>2</v>
@@ -45140,7 +44998,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="9" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="851" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -45151,10 +45009,10 @@
         <v>336</v>
       </c>
       <c r="C851" s="98" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D851" s="99" t="s">
         <v>1862</v>
-      </c>
-      <c r="D851" s="99" t="s">
-        <v>1863</v>
       </c>
       <c r="E851" s="98">
         <v>5</v>
@@ -45163,7 +45021,7 @@
         <v>1</v>
       </c>
       <c r="G851" s="99" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.2">
@@ -45177,7 +45035,7 @@
         <v>1046</v>
       </c>
       <c r="D852" s="9" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E852" s="9">
         <v>5</v>
@@ -45186,7 +45044,7 @@
         <v>1</v>
       </c>
       <c r="G852" s="9" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="853" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45200,16 +45058,16 @@
         <v>1046</v>
       </c>
       <c r="D853" s="107" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E853" s="106">
+        <v>2</v>
+      </c>
+      <c r="F853" s="106">
+        <v>1</v>
+      </c>
+      <c r="G853" s="107" t="s">
         <v>1879</v>
-      </c>
-      <c r="E853" s="106">
-        <v>2</v>
-      </c>
-      <c r="F853" s="106">
-        <v>1</v>
-      </c>
-      <c r="G853" s="107" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="854" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45232,7 +45090,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="107" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="855" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45255,215 +45113,35 @@
         <v>1</v>
       </c>
       <c r="G855" s="106" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="856" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A856" s="111">
-        <v>855</v>
-      </c>
-      <c r="B856" s="111">
-        <v>338</v>
-      </c>
-      <c r="C856" s="111" t="s">
-        <v>879</v>
-      </c>
-      <c r="D856" s="111">
-        <v>1</v>
-      </c>
-      <c r="E856" s="111">
-        <v>3</v>
-      </c>
-      <c r="F856" s="111">
-        <v>1</v>
-      </c>
-      <c r="G856" s="112" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="857" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A857" s="111">
-        <v>856</v>
-      </c>
-      <c r="B857" s="111">
-        <v>338</v>
-      </c>
-      <c r="C857" s="111" t="s">
-        <v>879</v>
-      </c>
-      <c r="D857" s="111">
-        <v>3</v>
-      </c>
-      <c r="E857" s="111">
-        <v>4</v>
-      </c>
-      <c r="F857" s="111">
-        <v>1</v>
-      </c>
-      <c r="G857" s="112" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="858" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A858" s="111">
-        <v>857</v>
-      </c>
-      <c r="B858" s="111">
-        <v>338</v>
-      </c>
-      <c r="C858" s="111" t="s">
-        <v>866</v>
-      </c>
-      <c r="D858" s="111" t="s">
-        <v>867</v>
-      </c>
-      <c r="E858" s="111">
-        <v>5</v>
-      </c>
-      <c r="F858" s="111">
-        <v>1</v>
-      </c>
-      <c r="G858" s="112" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="859" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A859" s="111">
-        <v>858</v>
-      </c>
-      <c r="B859" s="111">
-        <v>339</v>
-      </c>
-      <c r="C859" s="111" t="s">
-        <v>879</v>
-      </c>
-      <c r="D859" s="111">
-        <v>4</v>
-      </c>
-      <c r="E859" s="111">
-        <v>3</v>
-      </c>
-      <c r="F859" s="111">
-        <v>1</v>
-      </c>
-      <c r="G859" s="112" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="860" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A860" s="111">
-        <v>859</v>
-      </c>
-      <c r="B860" s="111">
-        <v>339</v>
-      </c>
-      <c r="C860" s="111" t="s">
-        <v>879</v>
-      </c>
-      <c r="D860" s="111">
-        <v>7</v>
-      </c>
-      <c r="E860" s="111">
-        <v>4</v>
-      </c>
-      <c r="F860" s="111">
-        <v>1</v>
-      </c>
-      <c r="G860" s="112" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="861" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A861" s="111">
-        <v>860</v>
-      </c>
-      <c r="B861" s="111">
-        <v>339</v>
-      </c>
-      <c r="C861" s="111" t="s">
-        <v>866</v>
-      </c>
-      <c r="D861" s="111" t="s">
-        <v>867</v>
-      </c>
-      <c r="E861" s="111">
-        <v>5</v>
-      </c>
-      <c r="F861" s="111">
-        <v>1</v>
-      </c>
-      <c r="G861" s="112" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="862" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A862" s="111">
-        <v>861</v>
-      </c>
-      <c r="B862" s="111">
-        <v>340</v>
-      </c>
-      <c r="C862" s="111" t="s">
-        <v>879</v>
-      </c>
-      <c r="D862" s="111">
-        <v>8</v>
-      </c>
-      <c r="E862" s="111">
-        <v>3</v>
-      </c>
-      <c r="F862" s="111">
-        <v>1</v>
-      </c>
-      <c r="G862" s="112" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="863" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A863" s="111">
-        <v>862</v>
-      </c>
-      <c r="B863" s="111">
-        <v>340</v>
-      </c>
-      <c r="C863" s="111" t="s">
-        <v>879</v>
-      </c>
-      <c r="D863" s="111">
-        <v>10</v>
-      </c>
-      <c r="E863" s="111">
-        <v>4</v>
-      </c>
-      <c r="F863" s="111">
-        <v>1</v>
-      </c>
-      <c r="G863" s="112" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="864" spans="1:9" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A864" s="111">
-        <v>863</v>
-      </c>
-      <c r="B864" s="111">
-        <v>340</v>
-      </c>
-      <c r="C864" s="111" t="s">
-        <v>866</v>
-      </c>
-      <c r="D864" s="111" t="s">
-        <v>867</v>
-      </c>
-      <c r="E864" s="111">
-        <v>5</v>
-      </c>
-      <c r="F864" s="111">
-        <v>1</v>
-      </c>
-      <c r="G864" s="112" t="s">
-        <v>1818</v>
-      </c>
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G856" s="10"/>
+    </row>
+    <row r="857" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G857" s="10"/>
+    </row>
+    <row r="858" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G858" s="10"/>
+    </row>
+    <row r="859" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G859" s="10"/>
+    </row>
+    <row r="860" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G860" s="10"/>
+    </row>
+    <row r="861" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G861" s="10"/>
+    </row>
+    <row r="862" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G862" s="10"/>
+    </row>
+    <row r="863" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G863" s="10"/>
+    </row>
+    <row r="864" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G864" s="10"/>
     </row>
     <row r="865" spans="3:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D865" s="10"/>
@@ -45602,7 +45280,7 @@
         <v>898</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -45619,13 +45297,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -45645,7 +45323,7 @@
         <v>1631</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1626</v>
@@ -45671,7 +45349,7 @@
         <v>898</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -45688,13 +45366,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -45703,7 +45381,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
   </sheetData>
@@ -45796,7 +45474,7 @@
         <v>866</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
